--- a/TableDesign.xlsx
+++ b/TableDesign.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
-  <si>
-    <t>Utilities</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>First_name</t>
   </si>
@@ -35,9 +32,6 @@
     <t>Last_name</t>
   </si>
   <si>
-    <t>User_id</t>
-  </si>
-  <si>
     <t>boat_id</t>
   </si>
   <si>
@@ -74,18 +68,9 @@
     <t>Peschereccio</t>
   </si>
   <si>
-    <t>Mooring_id</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
-    <t>end date</t>
-  </si>
-  <si>
-    <t>start date</t>
-  </si>
-  <si>
     <t>#55</t>
   </si>
   <si>
@@ -107,15 +92,9 @@
     <t>#201</t>
   </si>
   <si>
-    <t>Utilities_id</t>
-  </si>
-  <si>
     <t>bill_id</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>h2o1</t>
   </si>
   <si>
@@ -248,7 +227,28 @@
     <t>Moorings</t>
   </si>
   <si>
-    <t>Customers</t>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>service_id</t>
+  </si>
+  <si>
+    <t>Bill_Service</t>
+  </si>
+  <si>
+    <t>bill_date</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>mooring_id</t>
   </si>
 </sst>
 </file>
@@ -292,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -511,14 +511,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -528,30 +580,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -834,614 +885,758 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="K1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="7" t="str">
+        <f>E2</f>
+        <v>boat_id</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>100</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>20</v>
       </c>
-      <c r="I3" s="13" t="str">
+      <c r="I3" s="9" t="str">
         <f>C3</f>
         <v>u101</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="K3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3">
         <v>1000</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>150</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>25</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="17">
-        <v>43824</v>
-      </c>
-      <c r="Q3" s="13" t="str">
+      <c r="O3" s="9" t="str">
         <f>E3</f>
         <v>#110</v>
       </c>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>20</v>
       </c>
-      <c r="I4" s="13" t="str">
+      <c r="I4" s="9" t="str">
         <f>C3</f>
         <v>u101</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="K4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3">
         <v>20</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>15</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>15</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="17">
-        <v>43773</v>
-      </c>
-      <c r="Q4" s="18" t="str">
+      <c r="O4" s="13" t="str">
         <f>E5</f>
         <v>#201</v>
       </c>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="E5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="9"/>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="I5" s="13" t="str">
+      <c r="I5" s="9" t="str">
         <f>C4</f>
         <v>u666</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="13"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="13"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="13"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="13"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="J12" s="3" t="s">
+      <c r="A12" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="D13" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="38" t="str">
+        <f>C2</f>
+        <v>user_id</v>
+      </c>
+      <c r="F13" s="39" t="str">
+        <f>E2</f>
+        <v>boat_id</v>
+      </c>
+      <c r="H13" s="43" t="str">
+        <f>A13</f>
+        <v>bill_id</v>
+      </c>
+      <c r="I13" s="39" t="str">
+        <f>K13</f>
+        <v>service_id</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="27"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="str">
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="3" t="str">
         <f>C3</f>
         <v>u101</v>
       </c>
-      <c r="D14" s="26" t="str">
-        <f>J14</f>
-        <v>001</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="F14" s="9" t="str">
+        <f>E3</f>
+        <v>#110</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>A14</f>
+        <v>#000</v>
+      </c>
+      <c r="I14" s="21">
+        <f>O15</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="3">
         <v>10</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="M14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6" t="str">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="str">
+        <f>C4</f>
+        <v>u666</v>
+      </c>
+      <c r="F15" s="9" t="str">
+        <f>E5</f>
+        <v>#201</v>
+      </c>
+      <c r="H15" s="8" t="str">
+        <f>A14</f>
+        <v>#000</v>
+      </c>
+      <c r="I15" s="21">
+        <f>O27</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="3" t="str">
         <f>C3</f>
         <v>u101</v>
       </c>
-      <c r="D15" s="13" t="str">
-        <f>J17</f>
-        <v>004</v>
-      </c>
-      <c r="J15" s="25" t="s">
+      <c r="F16" s="9" t="str">
+        <f>E4</f>
+        <v>#111</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="29"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="3">
+        <v>10</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="29"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="29"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="3">
+        <v>10</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="29"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="29"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="6">
-        <v>100</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f>C4</f>
-        <v>u666</v>
-      </c>
-      <c r="D16" s="27" t="str">
-        <f>J26</f>
-        <v>013</v>
-      </c>
-      <c r="J16" s="25" t="s">
+      <c r="L22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="29"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="3">
+        <v>20</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="13"/>
-      <c r="J17" s="25" t="s">
+      <c r="L24" s="3">
+        <v>80</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="29"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J25" s="29"/>
+      <c r="K25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="6">
-        <v>10</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
-      <c r="G18" s="2"/>
-      <c r="J18" s="25" t="s">
+      <c r="L25" s="3">
+        <v>260</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J26" s="29"/>
+      <c r="K26" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="6">
-        <v>100</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="13"/>
-      <c r="J19" s="25" t="s">
+      <c r="L26" s="3">
+        <v>6</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="29"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="29"/>
+      <c r="K27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="13"/>
-      <c r="J20" s="25" t="s">
+      <c r="L27" s="3">
+        <v>12</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="29"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="29"/>
+      <c r="K28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="6">
-        <v>10</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="13"/>
-      <c r="J21" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="6">
-        <v>100</v>
-      </c>
-      <c r="L21" s="13" t="s">
+      <c r="L28" s="11">
+        <v>24</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="13"/>
-      <c r="J22" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="13"/>
-      <c r="J23" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23" s="6">
-        <v>20</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="J24" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="6">
-        <v>80</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J25" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="K25" s="6">
-        <v>260</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J26" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26" s="6">
-        <v>6</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J27" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="6">
-        <v>12</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="15">
-        <v>24</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>55</v>
-      </c>
+      <c r="O28" s="29"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A12:D12"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="K12:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
